--- a/PortableCalc/zzzTest.xlsx
+++ b/PortableCalc/zzzTest.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14480" windowHeight="7290" tabRatio="522" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14475" windowHeight="7290" tabRatio="522" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Guide" sheetId="12" r:id="rId1"/>
@@ -90,7 +90,7 @@
     <definedName name="Rate_Segment3">Database!$CQ$60:$DJ$60</definedName>
     <definedName name="Rates">Database!$BC$60:$DJ$60</definedName>
     <definedName name="rowbreak" localSheetId="2">Analysis!$B$6</definedName>
-    <definedName name="Selected" localSheetId="2">Analysis!$H$3</definedName>
+    <definedName name="Selected" localSheetId="2">Analysis!$E$7</definedName>
     <definedName name="Share">Database!#REF!</definedName>
     <definedName name="SupplierName" localSheetId="1">Database!$E$60</definedName>
     <definedName name="Suppliers" localSheetId="2">Analysis!$E$3</definedName>
@@ -2300,8 +2300,12 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="32" fillId="28" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="31" fillId="28" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="28" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="28" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2309,6 +2313,10 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="28" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="28" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -2330,14 +2338,6 @@
     </xf>
     <xf numFmtId="0" fontId="32" fillId="29" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="28" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="28" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -2414,31 +2414,31 @@
 </file>
 
 <file path=xl/activeX/activeX1.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D7053240-CE69-11CD-A777-00DD01143C57}" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D7053240-CE69-11CD-A777-00DD01143C57}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX2.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D7053240-CE69-11CD-A777-00DD01143C57}" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D7053240-CE69-11CD-A777-00DD01143C57}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX3.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D7053240-CE69-11CD-A777-00DD01143C57}" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D7053240-CE69-11CD-A777-00DD01143C57}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX4.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D7053240-CE69-11CD-A777-00DD01143C57}" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D7053240-CE69-11CD-A777-00DD01143C57}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX5.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D7053240-CE69-11CD-A777-00DD01143C57}" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D7053240-CE69-11CD-A777-00DD01143C57}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX6.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D7053240-CE69-11CD-A777-00DD01143C57}" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D7053240-CE69-11CD-A777-00DD01143C57}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX7.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D7053240-CE69-11CD-A777-00DD01143C57}" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D7053240-CE69-11CD-A777-00DD01143C57}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2454,9 +2454,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>548640</xdr:colOff>
+          <xdr:colOff>390525</xdr:colOff>
           <xdr:row>50</xdr:row>
-          <xdr:rowOff>137160</xdr:rowOff>
+          <xdr:rowOff>95250</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2503,15 +2503,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>30480</xdr:colOff>
+          <xdr:colOff>28575</xdr:colOff>
           <xdr:row>49</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>579120</xdr:colOff>
+          <xdr:colOff>419100</xdr:colOff>
           <xdr:row>50</xdr:row>
-          <xdr:rowOff>137160</xdr:rowOff>
+          <xdr:rowOff>95250</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2558,15 +2558,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>30480</xdr:colOff>
+          <xdr:colOff>28575</xdr:colOff>
           <xdr:row>51</xdr:row>
-          <xdr:rowOff>30480</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>579120</xdr:colOff>
-          <xdr:row>52</xdr:row>
-          <xdr:rowOff>167640</xdr:rowOff>
+          <xdr:colOff>419100</xdr:colOff>
+          <xdr:row>53</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2615,13 +2615,13 @@
           <xdr:col>8</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>51</xdr:row>
-          <xdr:rowOff>30480</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>548640</xdr:colOff>
-          <xdr:row>52</xdr:row>
-          <xdr:rowOff>167640</xdr:rowOff>
+          <xdr:colOff>390525</xdr:colOff>
+          <xdr:row>53</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2668,15 +2668,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>30480</xdr:colOff>
+          <xdr:colOff>28575</xdr:colOff>
           <xdr:row>53</xdr:row>
-          <xdr:rowOff>60960</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>579120</xdr:colOff>
+          <xdr:colOff>419100</xdr:colOff>
           <xdr:row>55</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2725,13 +2725,13 @@
           <xdr:col>8</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>53</xdr:row>
-          <xdr:rowOff>60960</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>548640</xdr:colOff>
+          <xdr:colOff>390525</xdr:colOff>
           <xdr:row>55</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2783,15 +2783,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>30480</xdr:colOff>
+          <xdr:colOff>28575</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>12</xdr:col>
-          <xdr:colOff>594360</xdr:colOff>
+          <xdr:colOff>438150</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>30480</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3130,12 +3130,12 @@
       <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13"/>
+  <sheetFormatPr defaultRowHeight="12"/>
   <cols>
-    <col min="3" max="3" width="15.69921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="17.5">
+    <row r="1" spans="1:2" ht="18.75">
       <c r="A1" s="61" t="s">
         <v>255</v>
       </c>
@@ -3543,20 +3543,20 @@
       <selection activeCell="N50" sqref="N50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="11.09765625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="11.140625" style="2" customWidth="1"/>
     <col min="2" max="5" width="13" style="2" customWidth="1"/>
-    <col min="6" max="16" width="12.69921875" style="2" customWidth="1"/>
-    <col min="17" max="54" width="9.69921875" style="2" customWidth="1"/>
-    <col min="55" max="60" width="10.09765625" style="2" customWidth="1"/>
-    <col min="61" max="174" width="8.3984375" style="2" customWidth="1"/>
-    <col min="175" max="175" width="8.59765625" style="2" customWidth="1"/>
-    <col min="176" max="300" width="8.3984375" style="2" customWidth="1"/>
-    <col min="301" max="16384" width="8.8984375" style="2"/>
+    <col min="6" max="16" width="12.7109375" style="2" customWidth="1"/>
+    <col min="17" max="54" width="9.7109375" style="2" customWidth="1"/>
+    <col min="55" max="60" width="10.140625" style="2" customWidth="1"/>
+    <col min="61" max="174" width="8.42578125" style="2" customWidth="1"/>
+    <col min="175" max="175" width="8.5703125" style="2" customWidth="1"/>
+    <col min="176" max="300" width="8.42578125" style="2" customWidth="1"/>
+    <col min="301" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" ht="18.5">
+    <row r="1" spans="1:38" ht="18.75">
       <c r="A1" s="1" t="s">
         <v>32</v>
       </c>
@@ -3951,7 +3951,7 @@
       <c r="N11" s="4"/>
       <c r="O11" s="5"/>
     </row>
-    <row r="12" spans="1:38" ht="39">
+    <row r="12" spans="1:38" ht="38.25">
       <c r="F12" s="23" t="s">
         <v>14</v>
       </c>
@@ -4833,7 +4833,7 @@
       <c r="AK30" s="4"/>
       <c r="AL30" s="5"/>
     </row>
-    <row r="31" spans="6:38" ht="14.5">
+    <row r="31" spans="6:38" ht="15">
       <c r="F31" s="6" t="s">
         <v>19</v>
       </c>
@@ -6062,337 +6062,337 @@
       <c r="C59" s="32"/>
       <c r="D59" s="32"/>
       <c r="E59" s="32"/>
-      <c r="F59" s="70" t="s">
+      <c r="F59" s="62" t="s">
         <v>29</v>
       </c>
-      <c r="G59" s="70"/>
-      <c r="H59" s="70"/>
-      <c r="I59" s="70"/>
-      <c r="J59" s="70"/>
-      <c r="K59" s="70"/>
-      <c r="L59" s="70"/>
-      <c r="M59" s="70" t="s">
+      <c r="G59" s="62"/>
+      <c r="H59" s="62"/>
+      <c r="I59" s="62"/>
+      <c r="J59" s="62"/>
+      <c r="K59" s="62"/>
+      <c r="L59" s="62"/>
+      <c r="M59" s="62" t="s">
         <v>30</v>
       </c>
-      <c r="N59" s="70"/>
-      <c r="O59" s="70"/>
-      <c r="P59" s="70"/>
-      <c r="Q59" s="70"/>
-      <c r="R59" s="70"/>
-      <c r="S59" s="70"/>
-      <c r="T59" s="71" t="s">
+      <c r="N59" s="62"/>
+      <c r="O59" s="62"/>
+      <c r="P59" s="62"/>
+      <c r="Q59" s="62"/>
+      <c r="R59" s="62"/>
+      <c r="S59" s="62"/>
+      <c r="T59" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="U59" s="71"/>
-      <c r="V59" s="71"/>
-      <c r="W59" s="71"/>
-      <c r="X59" s="71"/>
-      <c r="Y59" s="71"/>
-      <c r="Z59" s="71" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA59" s="71"/>
-      <c r="AB59" s="71"/>
-      <c r="AC59" s="71"/>
-      <c r="AD59" s="71"/>
-      <c r="AE59" s="71"/>
-      <c r="AF59" s="71"/>
-      <c r="AG59" s="71"/>
-      <c r="AH59" s="71"/>
-      <c r="AI59" s="71"/>
-      <c r="AJ59" s="71"/>
-      <c r="AK59" s="71"/>
-      <c r="AL59" s="71"/>
-      <c r="AM59" s="71"/>
-      <c r="AN59" s="71"/>
-      <c r="AO59" s="71"/>
-      <c r="AP59" s="71"/>
-      <c r="AQ59" s="71"/>
-      <c r="AR59" s="71"/>
-      <c r="AS59" s="71" t="s">
+      <c r="U59" s="63"/>
+      <c r="V59" s="63"/>
+      <c r="W59" s="63"/>
+      <c r="X59" s="63"/>
+      <c r="Y59" s="63"/>
+      <c r="Z59" s="63" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA59" s="63"/>
+      <c r="AB59" s="63"/>
+      <c r="AC59" s="63"/>
+      <c r="AD59" s="63"/>
+      <c r="AE59" s="63"/>
+      <c r="AF59" s="63"/>
+      <c r="AG59" s="63"/>
+      <c r="AH59" s="63"/>
+      <c r="AI59" s="63"/>
+      <c r="AJ59" s="63"/>
+      <c r="AK59" s="63"/>
+      <c r="AL59" s="63"/>
+      <c r="AM59" s="63"/>
+      <c r="AN59" s="63"/>
+      <c r="AO59" s="63"/>
+      <c r="AP59" s="63"/>
+      <c r="AQ59" s="63"/>
+      <c r="AR59" s="63"/>
+      <c r="AS59" s="63" t="s">
         <v>65</v>
       </c>
-      <c r="AT59" s="71"/>
-      <c r="AU59" s="71"/>
-      <c r="AV59" s="71"/>
-      <c r="BC59" s="65" t="str">
+      <c r="AT59" s="63"/>
+      <c r="AU59" s="63"/>
+      <c r="AV59" s="63"/>
+      <c r="BC59" s="67" t="str">
         <f>"Rate Structure 1 - " &amp; H44</f>
         <v>Rate Structure 1 - F x Q</v>
       </c>
-      <c r="BD59" s="66"/>
-      <c r="BE59" s="66"/>
-      <c r="BF59" s="66"/>
-      <c r="BG59" s="66"/>
-      <c r="BH59" s="66"/>
-      <c r="BI59" s="66"/>
-      <c r="BJ59" s="66"/>
-      <c r="BK59" s="66"/>
-      <c r="BL59" s="66"/>
-      <c r="BM59" s="66"/>
-      <c r="BN59" s="66"/>
-      <c r="BO59" s="66"/>
-      <c r="BP59" s="66"/>
-      <c r="BQ59" s="66"/>
-      <c r="BR59" s="66"/>
-      <c r="BS59" s="66"/>
-      <c r="BT59" s="66"/>
-      <c r="BU59" s="66"/>
-      <c r="BV59" s="66"/>
-      <c r="BW59" s="67" t="str">
+      <c r="BD59" s="68"/>
+      <c r="BE59" s="68"/>
+      <c r="BF59" s="68"/>
+      <c r="BG59" s="68"/>
+      <c r="BH59" s="68"/>
+      <c r="BI59" s="68"/>
+      <c r="BJ59" s="68"/>
+      <c r="BK59" s="68"/>
+      <c r="BL59" s="68"/>
+      <c r="BM59" s="68"/>
+      <c r="BN59" s="68"/>
+      <c r="BO59" s="68"/>
+      <c r="BP59" s="68"/>
+      <c r="BQ59" s="68"/>
+      <c r="BR59" s="68"/>
+      <c r="BS59" s="68"/>
+      <c r="BT59" s="68"/>
+      <c r="BU59" s="68"/>
+      <c r="BV59" s="68"/>
+      <c r="BW59" s="69" t="str">
         <f>"Rate Structure 2 - " &amp; K44</f>
         <v>Rate Structure 2 - F x Q</v>
       </c>
-      <c r="BX59" s="68"/>
-      <c r="BY59" s="68"/>
-      <c r="BZ59" s="68"/>
-      <c r="CA59" s="68"/>
-      <c r="CB59" s="68"/>
-      <c r="CC59" s="68"/>
-      <c r="CD59" s="68"/>
-      <c r="CE59" s="68"/>
-      <c r="CF59" s="68"/>
-      <c r="CG59" s="68"/>
-      <c r="CH59" s="68"/>
-      <c r="CI59" s="68"/>
-      <c r="CJ59" s="68"/>
-      <c r="CK59" s="68"/>
-      <c r="CL59" s="68"/>
-      <c r="CM59" s="68"/>
-      <c r="CN59" s="68"/>
-      <c r="CO59" s="68"/>
-      <c r="CP59" s="69"/>
-      <c r="CQ59" s="67" t="str">
+      <c r="BX59" s="70"/>
+      <c r="BY59" s="70"/>
+      <c r="BZ59" s="70"/>
+      <c r="CA59" s="70"/>
+      <c r="CB59" s="70"/>
+      <c r="CC59" s="70"/>
+      <c r="CD59" s="70"/>
+      <c r="CE59" s="70"/>
+      <c r="CF59" s="70"/>
+      <c r="CG59" s="70"/>
+      <c r="CH59" s="70"/>
+      <c r="CI59" s="70"/>
+      <c r="CJ59" s="70"/>
+      <c r="CK59" s="70"/>
+      <c r="CL59" s="70"/>
+      <c r="CM59" s="70"/>
+      <c r="CN59" s="70"/>
+      <c r="CO59" s="70"/>
+      <c r="CP59" s="71"/>
+      <c r="CQ59" s="69" t="str">
         <f>"Rate Structure 3 - " &amp; N44</f>
         <v xml:space="preserve">Rate Structure 3 - </v>
       </c>
-      <c r="CR59" s="68"/>
-      <c r="CS59" s="68"/>
-      <c r="CT59" s="68"/>
-      <c r="CU59" s="68"/>
-      <c r="CV59" s="68"/>
-      <c r="CW59" s="68"/>
-      <c r="CX59" s="68"/>
-      <c r="CY59" s="68"/>
-      <c r="CZ59" s="68"/>
-      <c r="DA59" s="68"/>
-      <c r="DB59" s="68"/>
-      <c r="DC59" s="68"/>
-      <c r="DD59" s="68"/>
-      <c r="DE59" s="68"/>
-      <c r="DF59" s="68"/>
-      <c r="DG59" s="68"/>
-      <c r="DH59" s="68"/>
-      <c r="DI59" s="68"/>
-      <c r="DJ59" s="68"/>
-      <c r="DK59" s="63" t="str">
+      <c r="CR59" s="70"/>
+      <c r="CS59" s="70"/>
+      <c r="CT59" s="70"/>
+      <c r="CU59" s="70"/>
+      <c r="CV59" s="70"/>
+      <c r="CW59" s="70"/>
+      <c r="CX59" s="70"/>
+      <c r="CY59" s="70"/>
+      <c r="CZ59" s="70"/>
+      <c r="DA59" s="70"/>
+      <c r="DB59" s="70"/>
+      <c r="DC59" s="70"/>
+      <c r="DD59" s="70"/>
+      <c r="DE59" s="70"/>
+      <c r="DF59" s="70"/>
+      <c r="DG59" s="70"/>
+      <c r="DH59" s="70"/>
+      <c r="DI59" s="70"/>
+      <c r="DJ59" s="70"/>
+      <c r="DK59" s="64" t="str">
         <f>"Quantity Allocation 1 - " &amp; H41</f>
         <v>Quantity Allocation 1 - CAPA</v>
       </c>
-      <c r="DL59" s="63"/>
-      <c r="DM59" s="63"/>
-      <c r="DN59" s="63"/>
-      <c r="DO59" s="63"/>
-      <c r="DP59" s="63"/>
-      <c r="DQ59" s="63"/>
-      <c r="DR59" s="63"/>
-      <c r="DS59" s="63"/>
-      <c r="DT59" s="63"/>
-      <c r="DU59" s="63"/>
-      <c r="DV59" s="63"/>
-      <c r="DW59" s="63"/>
-      <c r="DX59" s="63"/>
-      <c r="DY59" s="63"/>
-      <c r="DZ59" s="63"/>
-      <c r="EA59" s="63"/>
-      <c r="EB59" s="63"/>
-      <c r="EC59" s="63"/>
-      <c r="ED59" s="63"/>
-      <c r="EE59" s="63" t="str">
+      <c r="DL59" s="64"/>
+      <c r="DM59" s="64"/>
+      <c r="DN59" s="64"/>
+      <c r="DO59" s="64"/>
+      <c r="DP59" s="64"/>
+      <c r="DQ59" s="64"/>
+      <c r="DR59" s="64"/>
+      <c r="DS59" s="64"/>
+      <c r="DT59" s="64"/>
+      <c r="DU59" s="64"/>
+      <c r="DV59" s="64"/>
+      <c r="DW59" s="64"/>
+      <c r="DX59" s="64"/>
+      <c r="DY59" s="64"/>
+      <c r="DZ59" s="64"/>
+      <c r="EA59" s="64"/>
+      <c r="EB59" s="64"/>
+      <c r="EC59" s="64"/>
+      <c r="ED59" s="64"/>
+      <c r="EE59" s="64" t="str">
         <f>"Quantity Allocation 2 - " &amp; K41</f>
         <v>Quantity Allocation 2 - W</v>
       </c>
-      <c r="EF59" s="63"/>
-      <c r="EG59" s="63"/>
-      <c r="EH59" s="63"/>
-      <c r="EI59" s="63"/>
-      <c r="EJ59" s="63"/>
-      <c r="EK59" s="63"/>
-      <c r="EL59" s="63"/>
-      <c r="EM59" s="63"/>
-      <c r="EN59" s="63"/>
-      <c r="EO59" s="63"/>
-      <c r="EP59" s="63"/>
-      <c r="EQ59" s="63"/>
-      <c r="ER59" s="63"/>
-      <c r="ES59" s="63"/>
-      <c r="ET59" s="63"/>
-      <c r="EU59" s="63"/>
-      <c r="EV59" s="63"/>
-      <c r="EW59" s="63"/>
-      <c r="EX59" s="63"/>
-      <c r="EY59" s="63" t="str">
+      <c r="EF59" s="64"/>
+      <c r="EG59" s="64"/>
+      <c r="EH59" s="64"/>
+      <c r="EI59" s="64"/>
+      <c r="EJ59" s="64"/>
+      <c r="EK59" s="64"/>
+      <c r="EL59" s="64"/>
+      <c r="EM59" s="64"/>
+      <c r="EN59" s="64"/>
+      <c r="EO59" s="64"/>
+      <c r="EP59" s="64"/>
+      <c r="EQ59" s="64"/>
+      <c r="ER59" s="64"/>
+      <c r="ES59" s="64"/>
+      <c r="ET59" s="64"/>
+      <c r="EU59" s="64"/>
+      <c r="EV59" s="64"/>
+      <c r="EW59" s="64"/>
+      <c r="EX59" s="64"/>
+      <c r="EY59" s="64" t="str">
         <f>"Quantity Allocation 3 - " &amp; N41</f>
         <v xml:space="preserve">Quantity Allocation 3 - </v>
       </c>
-      <c r="EZ59" s="63"/>
-      <c r="FA59" s="63"/>
-      <c r="FB59" s="63"/>
-      <c r="FC59" s="63"/>
-      <c r="FD59" s="63"/>
-      <c r="FE59" s="63"/>
-      <c r="FF59" s="63"/>
-      <c r="FG59" s="63"/>
-      <c r="FH59" s="63"/>
-      <c r="FI59" s="63"/>
-      <c r="FJ59" s="63"/>
-      <c r="FK59" s="63"/>
-      <c r="FL59" s="63"/>
-      <c r="FM59" s="63"/>
-      <c r="FN59" s="63"/>
-      <c r="FO59" s="63"/>
-      <c r="FP59" s="63"/>
-      <c r="FQ59" s="63"/>
-      <c r="FR59" s="63"/>
-      <c r="FS59" s="64" t="s">
+      <c r="EZ59" s="64"/>
+      <c r="FA59" s="64"/>
+      <c r="FB59" s="64"/>
+      <c r="FC59" s="64"/>
+      <c r="FD59" s="64"/>
+      <c r="FE59" s="64"/>
+      <c r="FF59" s="64"/>
+      <c r="FG59" s="64"/>
+      <c r="FH59" s="64"/>
+      <c r="FI59" s="64"/>
+      <c r="FJ59" s="64"/>
+      <c r="FK59" s="64"/>
+      <c r="FL59" s="64"/>
+      <c r="FM59" s="64"/>
+      <c r="FN59" s="64"/>
+      <c r="FO59" s="64"/>
+      <c r="FP59" s="64"/>
+      <c r="FQ59" s="64"/>
+      <c r="FR59" s="64"/>
+      <c r="FS59" s="65" t="s">
         <v>171</v>
       </c>
-      <c r="FT59" s="62"/>
-      <c r="FU59" s="62"/>
-      <c r="FV59" s="62"/>
-      <c r="FW59" s="62"/>
-      <c r="FX59" s="62"/>
-      <c r="FY59" s="62"/>
-      <c r="FZ59" s="62"/>
-      <c r="GA59" s="62"/>
-      <c r="GB59" s="62"/>
-      <c r="GC59" s="62"/>
-      <c r="GD59" s="62"/>
-      <c r="GE59" s="62"/>
-      <c r="GF59" s="62"/>
-      <c r="GG59" s="62"/>
-      <c r="GH59" s="62"/>
-      <c r="GI59" s="62"/>
-      <c r="GJ59" s="62"/>
-      <c r="GK59" s="62"/>
-      <c r="GL59" s="62"/>
-      <c r="GM59" s="62" t="s">
+      <c r="FT59" s="66"/>
+      <c r="FU59" s="66"/>
+      <c r="FV59" s="66"/>
+      <c r="FW59" s="66"/>
+      <c r="FX59" s="66"/>
+      <c r="FY59" s="66"/>
+      <c r="FZ59" s="66"/>
+      <c r="GA59" s="66"/>
+      <c r="GB59" s="66"/>
+      <c r="GC59" s="66"/>
+      <c r="GD59" s="66"/>
+      <c r="GE59" s="66"/>
+      <c r="GF59" s="66"/>
+      <c r="GG59" s="66"/>
+      <c r="GH59" s="66"/>
+      <c r="GI59" s="66"/>
+      <c r="GJ59" s="66"/>
+      <c r="GK59" s="66"/>
+      <c r="GL59" s="66"/>
+      <c r="GM59" s="66" t="s">
         <v>170</v>
       </c>
-      <c r="GN59" s="62"/>
-      <c r="GO59" s="62"/>
-      <c r="GP59" s="62"/>
-      <c r="GQ59" s="62"/>
-      <c r="GR59" s="62"/>
-      <c r="GS59" s="62"/>
-      <c r="GT59" s="62"/>
-      <c r="GU59" s="62"/>
-      <c r="GV59" s="62"/>
-      <c r="GW59" s="62"/>
-      <c r="GX59" s="62"/>
-      <c r="GY59" s="62"/>
-      <c r="GZ59" s="62"/>
-      <c r="HA59" s="62"/>
-      <c r="HB59" s="62"/>
-      <c r="HC59" s="62"/>
-      <c r="HD59" s="62"/>
-      <c r="HE59" s="62"/>
-      <c r="HF59" s="62"/>
-      <c r="HG59" s="62" t="s">
+      <c r="GN59" s="66"/>
+      <c r="GO59" s="66"/>
+      <c r="GP59" s="66"/>
+      <c r="GQ59" s="66"/>
+      <c r="GR59" s="66"/>
+      <c r="GS59" s="66"/>
+      <c r="GT59" s="66"/>
+      <c r="GU59" s="66"/>
+      <c r="GV59" s="66"/>
+      <c r="GW59" s="66"/>
+      <c r="GX59" s="66"/>
+      <c r="GY59" s="66"/>
+      <c r="GZ59" s="66"/>
+      <c r="HA59" s="66"/>
+      <c r="HB59" s="66"/>
+      <c r="HC59" s="66"/>
+      <c r="HD59" s="66"/>
+      <c r="HE59" s="66"/>
+      <c r="HF59" s="66"/>
+      <c r="HG59" s="66" t="s">
         <v>169</v>
       </c>
-      <c r="HH59" s="62"/>
-      <c r="HI59" s="62"/>
-      <c r="HJ59" s="62"/>
-      <c r="HK59" s="62"/>
-      <c r="HL59" s="62"/>
-      <c r="HM59" s="62"/>
-      <c r="HN59" s="62"/>
-      <c r="HO59" s="62"/>
-      <c r="HP59" s="62"/>
-      <c r="HQ59" s="62"/>
-      <c r="HR59" s="62"/>
-      <c r="HS59" s="62"/>
-      <c r="HT59" s="62"/>
-      <c r="HU59" s="62"/>
-      <c r="HV59" s="62"/>
-      <c r="HW59" s="62"/>
-      <c r="HX59" s="62"/>
-      <c r="HY59" s="62"/>
-      <c r="HZ59" s="62"/>
+      <c r="HH59" s="66"/>
+      <c r="HI59" s="66"/>
+      <c r="HJ59" s="66"/>
+      <c r="HK59" s="66"/>
+      <c r="HL59" s="66"/>
+      <c r="HM59" s="66"/>
+      <c r="HN59" s="66"/>
+      <c r="HO59" s="66"/>
+      <c r="HP59" s="66"/>
+      <c r="HQ59" s="66"/>
+      <c r="HR59" s="66"/>
+      <c r="HS59" s="66"/>
+      <c r="HT59" s="66"/>
+      <c r="HU59" s="66"/>
+      <c r="HV59" s="66"/>
+      <c r="HW59" s="66"/>
+      <c r="HX59" s="66"/>
+      <c r="HY59" s="66"/>
+      <c r="HZ59" s="66"/>
       <c r="IA59" s="32"/>
       <c r="IB59" s="32"/>
       <c r="IC59" s="32"/>
-      <c r="ID59" s="62" t="s">
+      <c r="ID59" s="66" t="s">
         <v>46</v>
       </c>
-      <c r="IE59" s="62"/>
-      <c r="IF59" s="62"/>
-      <c r="IG59" s="62"/>
-      <c r="IH59" s="62"/>
-      <c r="II59" s="62"/>
-      <c r="IJ59" s="62"/>
-      <c r="IK59" s="62"/>
-      <c r="IL59" s="62"/>
-      <c r="IM59" s="62"/>
-      <c r="IN59" s="62"/>
-      <c r="IO59" s="62"/>
-      <c r="IP59" s="62"/>
-      <c r="IQ59" s="62"/>
-      <c r="IR59" s="62"/>
-      <c r="IS59" s="62"/>
-      <c r="IT59" s="62"/>
-      <c r="IU59" s="62"/>
-      <c r="IV59" s="62"/>
-      <c r="IW59" s="62"/>
-      <c r="IX59" s="62" t="s">
+      <c r="IE59" s="66"/>
+      <c r="IF59" s="66"/>
+      <c r="IG59" s="66"/>
+      <c r="IH59" s="66"/>
+      <c r="II59" s="66"/>
+      <c r="IJ59" s="66"/>
+      <c r="IK59" s="66"/>
+      <c r="IL59" s="66"/>
+      <c r="IM59" s="66"/>
+      <c r="IN59" s="66"/>
+      <c r="IO59" s="66"/>
+      <c r="IP59" s="66"/>
+      <c r="IQ59" s="66"/>
+      <c r="IR59" s="66"/>
+      <c r="IS59" s="66"/>
+      <c r="IT59" s="66"/>
+      <c r="IU59" s="66"/>
+      <c r="IV59" s="66"/>
+      <c r="IW59" s="66"/>
+      <c r="IX59" s="66" t="s">
         <v>47</v>
       </c>
-      <c r="IY59" s="62"/>
-      <c r="IZ59" s="62"/>
-      <c r="JA59" s="62"/>
-      <c r="JB59" s="62"/>
-      <c r="JC59" s="62"/>
-      <c r="JD59" s="62"/>
-      <c r="JE59" s="62"/>
-      <c r="JF59" s="62"/>
-      <c r="JG59" s="62"/>
-      <c r="JH59" s="62"/>
-      <c r="JI59" s="62"/>
-      <c r="JJ59" s="62"/>
-      <c r="JK59" s="62"/>
-      <c r="JL59" s="62"/>
-      <c r="JM59" s="62"/>
-      <c r="JN59" s="62"/>
-      <c r="JO59" s="62"/>
-      <c r="JP59" s="62"/>
-      <c r="JQ59" s="62"/>
-      <c r="JR59" s="62" t="s">
+      <c r="IY59" s="66"/>
+      <c r="IZ59" s="66"/>
+      <c r="JA59" s="66"/>
+      <c r="JB59" s="66"/>
+      <c r="JC59" s="66"/>
+      <c r="JD59" s="66"/>
+      <c r="JE59" s="66"/>
+      <c r="JF59" s="66"/>
+      <c r="JG59" s="66"/>
+      <c r="JH59" s="66"/>
+      <c r="JI59" s="66"/>
+      <c r="JJ59" s="66"/>
+      <c r="JK59" s="66"/>
+      <c r="JL59" s="66"/>
+      <c r="JM59" s="66"/>
+      <c r="JN59" s="66"/>
+      <c r="JO59" s="66"/>
+      <c r="JP59" s="66"/>
+      <c r="JQ59" s="66"/>
+      <c r="JR59" s="66" t="s">
         <v>48</v>
       </c>
-      <c r="JS59" s="62"/>
-      <c r="JT59" s="62"/>
-      <c r="JU59" s="62"/>
-      <c r="JV59" s="62"/>
-      <c r="JW59" s="62"/>
-      <c r="JX59" s="62"/>
-      <c r="JY59" s="62"/>
-      <c r="JZ59" s="62"/>
-      <c r="KA59" s="62"/>
-      <c r="KB59" s="62"/>
-      <c r="KC59" s="62"/>
-      <c r="KD59" s="62"/>
-      <c r="KE59" s="62"/>
-      <c r="KF59" s="62"/>
-      <c r="KG59" s="62"/>
-      <c r="KH59" s="62"/>
-      <c r="KI59" s="62"/>
-      <c r="KJ59" s="62"/>
-      <c r="KK59" s="62"/>
+      <c r="JS59" s="66"/>
+      <c r="JT59" s="66"/>
+      <c r="JU59" s="66"/>
+      <c r="JV59" s="66"/>
+      <c r="JW59" s="66"/>
+      <c r="JX59" s="66"/>
+      <c r="JY59" s="66"/>
+      <c r="JZ59" s="66"/>
+      <c r="KA59" s="66"/>
+      <c r="KB59" s="66"/>
+      <c r="KC59" s="66"/>
+      <c r="KD59" s="66"/>
+      <c r="KE59" s="66"/>
+      <c r="KF59" s="66"/>
+      <c r="KG59" s="66"/>
+      <c r="KH59" s="66"/>
+      <c r="KI59" s="66"/>
+      <c r="KJ59" s="66"/>
+      <c r="KK59" s="66"/>
       <c r="KL59" s="32"/>
       <c r="KM59" s="32"/>
       <c r="KN59" s="32"/>
     </row>
-    <row r="60" spans="1:300" s="39" customFormat="1" ht="52">
+    <row r="60" spans="1:300" s="39" customFormat="1" ht="51">
       <c r="A60" s="33" t="s">
         <v>10</v>
       </c>
@@ -32748,11 +32748,11 @@
   </sheetData>
   <autoFilter ref="A60:KN60"/>
   <mergeCells count="17">
-    <mergeCell ref="F59:L59"/>
-    <mergeCell ref="M59:S59"/>
-    <mergeCell ref="AS59:AV59"/>
-    <mergeCell ref="T59:Y59"/>
-    <mergeCell ref="Z59:AR59"/>
+    <mergeCell ref="JR59:KK59"/>
+    <mergeCell ref="ID59:IW59"/>
+    <mergeCell ref="IX59:JQ59"/>
+    <mergeCell ref="EY59:FR59"/>
+    <mergeCell ref="HG59:HZ59"/>
     <mergeCell ref="DK59:ED59"/>
     <mergeCell ref="EE59:EX59"/>
     <mergeCell ref="FS59:GL59"/>
@@ -32760,11 +32760,11 @@
     <mergeCell ref="BC59:BV59"/>
     <mergeCell ref="BW59:CP59"/>
     <mergeCell ref="CQ59:DJ59"/>
-    <mergeCell ref="JR59:KK59"/>
-    <mergeCell ref="ID59:IW59"/>
-    <mergeCell ref="IX59:JQ59"/>
-    <mergeCell ref="EY59:FR59"/>
-    <mergeCell ref="HG59:HZ59"/>
+    <mergeCell ref="F59:L59"/>
+    <mergeCell ref="M59:S59"/>
+    <mergeCell ref="AS59:AV59"/>
+    <mergeCell ref="T59:Y59"/>
+    <mergeCell ref="Z59:AR59"/>
   </mergeCells>
   <phoneticPr fontId="34" type="noConversion"/>
   <dataValidations count="8">
@@ -32801,8 +32801,133 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1030" r:id="rId4" name="cmdInitialise">
-          <controlPr defaultSize="0" disabled="1" autoLine="0" r:id="rId5">
+        <control shapeId="1046" r:id="rId4" name="cmdAnalyse">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>53</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>590550</xdr:colOff>
+                <xdr:row>55</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1046" r:id="rId4" name="cmdAnalyse"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1037" r:id="rId6" name="cmdCalculate">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>28575</xdr:colOff>
+                <xdr:row>53</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>619125</xdr:colOff>
+                <xdr:row>55</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1037" r:id="rId6" name="cmdCalculate"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1036" r:id="rId8" name="cmdFreeze">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>51</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>590550</xdr:colOff>
+                <xdr:row>53</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1036" r:id="rId8" name="cmdFreeze"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1035" r:id="rId10" name="cmdBuildDatabase">
+          <controlPr defaultSize="0" disabled="1" autoLine="0" r:id="rId11">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>28575</xdr:colOff>
+                <xdr:row>51</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>619125</xdr:colOff>
+                <xdr:row>53</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1035" r:id="rId10" name="cmdBuildDatabase"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1033" r:id="rId12" name="cmdClear">
+          <controlPr defaultSize="0" disabled="1" autoLine="0" r:id="rId13">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>28575</xdr:colOff>
+                <xdr:row>49</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>619125</xdr:colOff>
+                <xdr:row>50</xdr:row>
+                <xdr:rowOff>142875</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1033" r:id="rId12" name="cmdClear"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1030" r:id="rId14" name="cmdInitialise">
+          <controlPr defaultSize="0" disabled="1" autoLine="0" r:id="rId15">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>8</xdr:col>
@@ -32812,141 +32937,16 @@
               </from>
               <to>
                 <xdr:col>10</xdr:col>
-                <xdr:colOff>393700</xdr:colOff>
+                <xdr:colOff>590550</xdr:colOff>
                 <xdr:row>50</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
+                <xdr:rowOff>142875</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1030" r:id="rId4" name="cmdInitialise"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1033" r:id="rId6" name="cmdClear">
-          <controlPr defaultSize="0" disabled="1" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>25400</xdr:colOff>
-                <xdr:row>49</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>419100</xdr:colOff>
-                <xdr:row>50</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1033" r:id="rId6" name="cmdClear"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1035" r:id="rId8" name="cmdBuildDatabase">
-          <controlPr defaultSize="0" disabled="1" autoLine="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>25400</xdr:colOff>
-                <xdr:row>51</xdr:row>
-                <xdr:rowOff>25400</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>419100</xdr:colOff>
-                <xdr:row>53</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1035" r:id="rId8" name="cmdBuildDatabase"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1036" r:id="rId10" name="cmdFreeze">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>51</xdr:row>
-                <xdr:rowOff>25400</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>393700</xdr:colOff>
-                <xdr:row>53</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1036" r:id="rId10" name="cmdFreeze"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1037" r:id="rId12" name="cmdCalculate">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>25400</xdr:colOff>
-                <xdr:row>53</xdr:row>
-                <xdr:rowOff>50800</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>419100</xdr:colOff>
-                <xdr:row>55</xdr:row>
-                <xdr:rowOff>44450</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1037" r:id="rId12" name="cmdCalculate"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1046" r:id="rId14" name="cmdAnalyse">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>53</xdr:row>
-                <xdr:rowOff>50800</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>393700</xdr:colOff>
-                <xdr:row>55</xdr:row>
-                <xdr:rowOff>44450</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1046" r:id="rId14" name="cmdAnalyse"/>
+        <control shapeId="1030" r:id="rId14" name="cmdInitialise"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -32958,14 +32958,14 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:AA21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="23" width="10" style="44" customWidth="1"/>
-    <col min="24" max="16384" width="8.69921875" style="44"/>
+    <col min="24" max="16384" width="8.7109375" style="44"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27">
@@ -32986,12 +32986,6 @@
       <c r="E3" s="58">
         <v>4</v>
       </c>
-      <c r="G3" s="44" t="s">
-        <v>165</v>
-      </c>
-      <c r="H3" s="16">
-        <v>2</v>
-      </c>
     </row>
     <row r="4" spans="1:27">
       <c r="A4" s="44" t="s">
@@ -33040,6 +33034,12 @@
         <v>241</v>
       </c>
       <c r="B7" s="58">
+        <v>2</v>
+      </c>
+      <c r="D7" s="44" t="s">
+        <v>165</v>
+      </c>
+      <c r="E7" s="16">
         <v>2</v>
       </c>
     </row>
@@ -33667,15 +33667,15 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>9</xdr:col>
-                <xdr:colOff>25400</xdr:colOff>
+                <xdr:colOff>28575</xdr:colOff>
                 <xdr:row>2</xdr:row>
                 <xdr:rowOff>19050</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>12</xdr:col>
-                <xdr:colOff>438150</xdr:colOff>
+                <xdr:colOff>647700</xdr:colOff>
                 <xdr:row>4</xdr:row>
-                <xdr:rowOff>44450</xdr:rowOff>
+                <xdr:rowOff>57150</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -33690,18 +33690,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -33819,14 +33819,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9C99F188-3948-4D4A-9404-87BD1CB685A8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{294A415B-1D59-4C21-AD03-A47B40E97E05}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
@@ -33837,6 +33829,14 @@
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9C99F188-3948-4D4A-9404-87BD1CB685A8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/PortableCalc/zzzTest.xlsx
+++ b/PortableCalc/zzzTest.xlsx
@@ -106,7 +106,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3147" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3146" uniqueCount="311">
   <si>
     <t>Shipment</t>
   </si>
@@ -2300,12 +2300,8 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="31" fillId="28" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="28" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="32" fillId="28" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="28" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2313,10 +2309,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="28" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="28" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -2338,6 +2330,14 @@
     </xf>
     <xf numFmtId="0" fontId="32" fillId="29" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="28" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="28" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -2454,9 +2454,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>390525</xdr:colOff>
+          <xdr:colOff>590550</xdr:colOff>
           <xdr:row>50</xdr:row>
-          <xdr:rowOff>95250</xdr:rowOff>
+          <xdr:rowOff>142875</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2509,9 +2509,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>419100</xdr:colOff>
+          <xdr:colOff>619125</xdr:colOff>
           <xdr:row>50</xdr:row>
-          <xdr:rowOff>95250</xdr:rowOff>
+          <xdr:rowOff>142875</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2564,7 +2564,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>419100</xdr:colOff>
+          <xdr:colOff>619125</xdr:colOff>
           <xdr:row>53</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
@@ -2619,7 +2619,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>390525</xdr:colOff>
+          <xdr:colOff>590550</xdr:colOff>
           <xdr:row>53</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
@@ -2674,9 +2674,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>419100</xdr:colOff>
+          <xdr:colOff>619125</xdr:colOff>
           <xdr:row>55</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2729,9 +2729,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>390525</xdr:colOff>
+          <xdr:colOff>590550</xdr:colOff>
           <xdr:row>55</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2789,9 +2789,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>12</xdr:col>
-          <xdr:colOff>438150</xdr:colOff>
+          <xdr:colOff>647700</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>57150</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6062,332 +6062,332 @@
       <c r="C59" s="32"/>
       <c r="D59" s="32"/>
       <c r="E59" s="32"/>
-      <c r="F59" s="62" t="s">
+      <c r="F59" s="70" t="s">
         <v>29</v>
       </c>
-      <c r="G59" s="62"/>
-      <c r="H59" s="62"/>
-      <c r="I59" s="62"/>
-      <c r="J59" s="62"/>
-      <c r="K59" s="62"/>
-      <c r="L59" s="62"/>
-      <c r="M59" s="62" t="s">
+      <c r="G59" s="70"/>
+      <c r="H59" s="70"/>
+      <c r="I59" s="70"/>
+      <c r="J59" s="70"/>
+      <c r="K59" s="70"/>
+      <c r="L59" s="70"/>
+      <c r="M59" s="70" t="s">
         <v>30</v>
       </c>
-      <c r="N59" s="62"/>
-      <c r="O59" s="62"/>
-      <c r="P59" s="62"/>
-      <c r="Q59" s="62"/>
-      <c r="R59" s="62"/>
-      <c r="S59" s="62"/>
-      <c r="T59" s="63" t="s">
+      <c r="N59" s="70"/>
+      <c r="O59" s="70"/>
+      <c r="P59" s="70"/>
+      <c r="Q59" s="70"/>
+      <c r="R59" s="70"/>
+      <c r="S59" s="70"/>
+      <c r="T59" s="71" t="s">
         <v>28</v>
       </c>
-      <c r="U59" s="63"/>
-      <c r="V59" s="63"/>
-      <c r="W59" s="63"/>
-      <c r="X59" s="63"/>
-      <c r="Y59" s="63"/>
-      <c r="Z59" s="63" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA59" s="63"/>
-      <c r="AB59" s="63"/>
-      <c r="AC59" s="63"/>
-      <c r="AD59" s="63"/>
-      <c r="AE59" s="63"/>
-      <c r="AF59" s="63"/>
-      <c r="AG59" s="63"/>
-      <c r="AH59" s="63"/>
-      <c r="AI59" s="63"/>
-      <c r="AJ59" s="63"/>
-      <c r="AK59" s="63"/>
-      <c r="AL59" s="63"/>
-      <c r="AM59" s="63"/>
-      <c r="AN59" s="63"/>
-      <c r="AO59" s="63"/>
-      <c r="AP59" s="63"/>
-      <c r="AQ59" s="63"/>
-      <c r="AR59" s="63"/>
-      <c r="AS59" s="63" t="s">
+      <c r="U59" s="71"/>
+      <c r="V59" s="71"/>
+      <c r="W59" s="71"/>
+      <c r="X59" s="71"/>
+      <c r="Y59" s="71"/>
+      <c r="Z59" s="71" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA59" s="71"/>
+      <c r="AB59" s="71"/>
+      <c r="AC59" s="71"/>
+      <c r="AD59" s="71"/>
+      <c r="AE59" s="71"/>
+      <c r="AF59" s="71"/>
+      <c r="AG59" s="71"/>
+      <c r="AH59" s="71"/>
+      <c r="AI59" s="71"/>
+      <c r="AJ59" s="71"/>
+      <c r="AK59" s="71"/>
+      <c r="AL59" s="71"/>
+      <c r="AM59" s="71"/>
+      <c r="AN59" s="71"/>
+      <c r="AO59" s="71"/>
+      <c r="AP59" s="71"/>
+      <c r="AQ59" s="71"/>
+      <c r="AR59" s="71"/>
+      <c r="AS59" s="71" t="s">
         <v>65</v>
       </c>
-      <c r="AT59" s="63"/>
-      <c r="AU59" s="63"/>
-      <c r="AV59" s="63"/>
-      <c r="BC59" s="67" t="str">
+      <c r="AT59" s="71"/>
+      <c r="AU59" s="71"/>
+      <c r="AV59" s="71"/>
+      <c r="BC59" s="65" t="str">
         <f>"Rate Structure 1 - " &amp; H44</f>
         <v>Rate Structure 1 - F x Q</v>
       </c>
-      <c r="BD59" s="68"/>
-      <c r="BE59" s="68"/>
-      <c r="BF59" s="68"/>
-      <c r="BG59" s="68"/>
-      <c r="BH59" s="68"/>
-      <c r="BI59" s="68"/>
-      <c r="BJ59" s="68"/>
-      <c r="BK59" s="68"/>
-      <c r="BL59" s="68"/>
-      <c r="BM59" s="68"/>
-      <c r="BN59" s="68"/>
-      <c r="BO59" s="68"/>
-      <c r="BP59" s="68"/>
-      <c r="BQ59" s="68"/>
-      <c r="BR59" s="68"/>
-      <c r="BS59" s="68"/>
-      <c r="BT59" s="68"/>
-      <c r="BU59" s="68"/>
-      <c r="BV59" s="68"/>
-      <c r="BW59" s="69" t="str">
+      <c r="BD59" s="66"/>
+      <c r="BE59" s="66"/>
+      <c r="BF59" s="66"/>
+      <c r="BG59" s="66"/>
+      <c r="BH59" s="66"/>
+      <c r="BI59" s="66"/>
+      <c r="BJ59" s="66"/>
+      <c r="BK59" s="66"/>
+      <c r="BL59" s="66"/>
+      <c r="BM59" s="66"/>
+      <c r="BN59" s="66"/>
+      <c r="BO59" s="66"/>
+      <c r="BP59" s="66"/>
+      <c r="BQ59" s="66"/>
+      <c r="BR59" s="66"/>
+      <c r="BS59" s="66"/>
+      <c r="BT59" s="66"/>
+      <c r="BU59" s="66"/>
+      <c r="BV59" s="66"/>
+      <c r="BW59" s="67" t="str">
         <f>"Rate Structure 2 - " &amp; K44</f>
         <v>Rate Structure 2 - F x Q</v>
       </c>
-      <c r="BX59" s="70"/>
-      <c r="BY59" s="70"/>
-      <c r="BZ59" s="70"/>
-      <c r="CA59" s="70"/>
-      <c r="CB59" s="70"/>
-      <c r="CC59" s="70"/>
-      <c r="CD59" s="70"/>
-      <c r="CE59" s="70"/>
-      <c r="CF59" s="70"/>
-      <c r="CG59" s="70"/>
-      <c r="CH59" s="70"/>
-      <c r="CI59" s="70"/>
-      <c r="CJ59" s="70"/>
-      <c r="CK59" s="70"/>
-      <c r="CL59" s="70"/>
-      <c r="CM59" s="70"/>
-      <c r="CN59" s="70"/>
-      <c r="CO59" s="70"/>
-      <c r="CP59" s="71"/>
-      <c r="CQ59" s="69" t="str">
+      <c r="BX59" s="68"/>
+      <c r="BY59" s="68"/>
+      <c r="BZ59" s="68"/>
+      <c r="CA59" s="68"/>
+      <c r="CB59" s="68"/>
+      <c r="CC59" s="68"/>
+      <c r="CD59" s="68"/>
+      <c r="CE59" s="68"/>
+      <c r="CF59" s="68"/>
+      <c r="CG59" s="68"/>
+      <c r="CH59" s="68"/>
+      <c r="CI59" s="68"/>
+      <c r="CJ59" s="68"/>
+      <c r="CK59" s="68"/>
+      <c r="CL59" s="68"/>
+      <c r="CM59" s="68"/>
+      <c r="CN59" s="68"/>
+      <c r="CO59" s="68"/>
+      <c r="CP59" s="69"/>
+      <c r="CQ59" s="67" t="str">
         <f>"Rate Structure 3 - " &amp; N44</f>
         <v xml:space="preserve">Rate Structure 3 - </v>
       </c>
-      <c r="CR59" s="70"/>
-      <c r="CS59" s="70"/>
-      <c r="CT59" s="70"/>
-      <c r="CU59" s="70"/>
-      <c r="CV59" s="70"/>
-      <c r="CW59" s="70"/>
-      <c r="CX59" s="70"/>
-      <c r="CY59" s="70"/>
-      <c r="CZ59" s="70"/>
-      <c r="DA59" s="70"/>
-      <c r="DB59" s="70"/>
-      <c r="DC59" s="70"/>
-      <c r="DD59" s="70"/>
-      <c r="DE59" s="70"/>
-      <c r="DF59" s="70"/>
-      <c r="DG59" s="70"/>
-      <c r="DH59" s="70"/>
-      <c r="DI59" s="70"/>
-      <c r="DJ59" s="70"/>
-      <c r="DK59" s="64" t="str">
+      <c r="CR59" s="68"/>
+      <c r="CS59" s="68"/>
+      <c r="CT59" s="68"/>
+      <c r="CU59" s="68"/>
+      <c r="CV59" s="68"/>
+      <c r="CW59" s="68"/>
+      <c r="CX59" s="68"/>
+      <c r="CY59" s="68"/>
+      <c r="CZ59" s="68"/>
+      <c r="DA59" s="68"/>
+      <c r="DB59" s="68"/>
+      <c r="DC59" s="68"/>
+      <c r="DD59" s="68"/>
+      <c r="DE59" s="68"/>
+      <c r="DF59" s="68"/>
+      <c r="DG59" s="68"/>
+      <c r="DH59" s="68"/>
+      <c r="DI59" s="68"/>
+      <c r="DJ59" s="68"/>
+      <c r="DK59" s="63" t="str">
         <f>"Quantity Allocation 1 - " &amp; H41</f>
         <v>Quantity Allocation 1 - CAPA</v>
       </c>
-      <c r="DL59" s="64"/>
-      <c r="DM59" s="64"/>
-      <c r="DN59" s="64"/>
-      <c r="DO59" s="64"/>
-      <c r="DP59" s="64"/>
-      <c r="DQ59" s="64"/>
-      <c r="DR59" s="64"/>
-      <c r="DS59" s="64"/>
-      <c r="DT59" s="64"/>
-      <c r="DU59" s="64"/>
-      <c r="DV59" s="64"/>
-      <c r="DW59" s="64"/>
-      <c r="DX59" s="64"/>
-      <c r="DY59" s="64"/>
-      <c r="DZ59" s="64"/>
-      <c r="EA59" s="64"/>
-      <c r="EB59" s="64"/>
-      <c r="EC59" s="64"/>
-      <c r="ED59" s="64"/>
-      <c r="EE59" s="64" t="str">
+      <c r="DL59" s="63"/>
+      <c r="DM59" s="63"/>
+      <c r="DN59" s="63"/>
+      <c r="DO59" s="63"/>
+      <c r="DP59" s="63"/>
+      <c r="DQ59" s="63"/>
+      <c r="DR59" s="63"/>
+      <c r="DS59" s="63"/>
+      <c r="DT59" s="63"/>
+      <c r="DU59" s="63"/>
+      <c r="DV59" s="63"/>
+      <c r="DW59" s="63"/>
+      <c r="DX59" s="63"/>
+      <c r="DY59" s="63"/>
+      <c r="DZ59" s="63"/>
+      <c r="EA59" s="63"/>
+      <c r="EB59" s="63"/>
+      <c r="EC59" s="63"/>
+      <c r="ED59" s="63"/>
+      <c r="EE59" s="63" t="str">
         <f>"Quantity Allocation 2 - " &amp; K41</f>
         <v>Quantity Allocation 2 - W</v>
       </c>
-      <c r="EF59" s="64"/>
-      <c r="EG59" s="64"/>
-      <c r="EH59" s="64"/>
-      <c r="EI59" s="64"/>
-      <c r="EJ59" s="64"/>
-      <c r="EK59" s="64"/>
-      <c r="EL59" s="64"/>
-      <c r="EM59" s="64"/>
-      <c r="EN59" s="64"/>
-      <c r="EO59" s="64"/>
-      <c r="EP59" s="64"/>
-      <c r="EQ59" s="64"/>
-      <c r="ER59" s="64"/>
-      <c r="ES59" s="64"/>
-      <c r="ET59" s="64"/>
-      <c r="EU59" s="64"/>
-      <c r="EV59" s="64"/>
-      <c r="EW59" s="64"/>
-      <c r="EX59" s="64"/>
-      <c r="EY59" s="64" t="str">
+      <c r="EF59" s="63"/>
+      <c r="EG59" s="63"/>
+      <c r="EH59" s="63"/>
+      <c r="EI59" s="63"/>
+      <c r="EJ59" s="63"/>
+      <c r="EK59" s="63"/>
+      <c r="EL59" s="63"/>
+      <c r="EM59" s="63"/>
+      <c r="EN59" s="63"/>
+      <c r="EO59" s="63"/>
+      <c r="EP59" s="63"/>
+      <c r="EQ59" s="63"/>
+      <c r="ER59" s="63"/>
+      <c r="ES59" s="63"/>
+      <c r="ET59" s="63"/>
+      <c r="EU59" s="63"/>
+      <c r="EV59" s="63"/>
+      <c r="EW59" s="63"/>
+      <c r="EX59" s="63"/>
+      <c r="EY59" s="63" t="str">
         <f>"Quantity Allocation 3 - " &amp; N41</f>
         <v xml:space="preserve">Quantity Allocation 3 - </v>
       </c>
-      <c r="EZ59" s="64"/>
-      <c r="FA59" s="64"/>
-      <c r="FB59" s="64"/>
-      <c r="FC59" s="64"/>
-      <c r="FD59" s="64"/>
-      <c r="FE59" s="64"/>
-      <c r="FF59" s="64"/>
-      <c r="FG59" s="64"/>
-      <c r="FH59" s="64"/>
-      <c r="FI59" s="64"/>
-      <c r="FJ59" s="64"/>
-      <c r="FK59" s="64"/>
-      <c r="FL59" s="64"/>
-      <c r="FM59" s="64"/>
-      <c r="FN59" s="64"/>
-      <c r="FO59" s="64"/>
-      <c r="FP59" s="64"/>
-      <c r="FQ59" s="64"/>
-      <c r="FR59" s="64"/>
-      <c r="FS59" s="65" t="s">
+      <c r="EZ59" s="63"/>
+      <c r="FA59" s="63"/>
+      <c r="FB59" s="63"/>
+      <c r="FC59" s="63"/>
+      <c r="FD59" s="63"/>
+      <c r="FE59" s="63"/>
+      <c r="FF59" s="63"/>
+      <c r="FG59" s="63"/>
+      <c r="FH59" s="63"/>
+      <c r="FI59" s="63"/>
+      <c r="FJ59" s="63"/>
+      <c r="FK59" s="63"/>
+      <c r="FL59" s="63"/>
+      <c r="FM59" s="63"/>
+      <c r="FN59" s="63"/>
+      <c r="FO59" s="63"/>
+      <c r="FP59" s="63"/>
+      <c r="FQ59" s="63"/>
+      <c r="FR59" s="63"/>
+      <c r="FS59" s="64" t="s">
         <v>171</v>
       </c>
-      <c r="FT59" s="66"/>
-      <c r="FU59" s="66"/>
-      <c r="FV59" s="66"/>
-      <c r="FW59" s="66"/>
-      <c r="FX59" s="66"/>
-      <c r="FY59" s="66"/>
-      <c r="FZ59" s="66"/>
-      <c r="GA59" s="66"/>
-      <c r="GB59" s="66"/>
-      <c r="GC59" s="66"/>
-      <c r="GD59" s="66"/>
-      <c r="GE59" s="66"/>
-      <c r="GF59" s="66"/>
-      <c r="GG59" s="66"/>
-      <c r="GH59" s="66"/>
-      <c r="GI59" s="66"/>
-      <c r="GJ59" s="66"/>
-      <c r="GK59" s="66"/>
-      <c r="GL59" s="66"/>
-      <c r="GM59" s="66" t="s">
+      <c r="FT59" s="62"/>
+      <c r="FU59" s="62"/>
+      <c r="FV59" s="62"/>
+      <c r="FW59" s="62"/>
+      <c r="FX59" s="62"/>
+      <c r="FY59" s="62"/>
+      <c r="FZ59" s="62"/>
+      <c r="GA59" s="62"/>
+      <c r="GB59" s="62"/>
+      <c r="GC59" s="62"/>
+      <c r="GD59" s="62"/>
+      <c r="GE59" s="62"/>
+      <c r="GF59" s="62"/>
+      <c r="GG59" s="62"/>
+      <c r="GH59" s="62"/>
+      <c r="GI59" s="62"/>
+      <c r="GJ59" s="62"/>
+      <c r="GK59" s="62"/>
+      <c r="GL59" s="62"/>
+      <c r="GM59" s="62" t="s">
         <v>170</v>
       </c>
-      <c r="GN59" s="66"/>
-      <c r="GO59" s="66"/>
-      <c r="GP59" s="66"/>
-      <c r="GQ59" s="66"/>
-      <c r="GR59" s="66"/>
-      <c r="GS59" s="66"/>
-      <c r="GT59" s="66"/>
-      <c r="GU59" s="66"/>
-      <c r="GV59" s="66"/>
-      <c r="GW59" s="66"/>
-      <c r="GX59" s="66"/>
-      <c r="GY59" s="66"/>
-      <c r="GZ59" s="66"/>
-      <c r="HA59" s="66"/>
-      <c r="HB59" s="66"/>
-      <c r="HC59" s="66"/>
-      <c r="HD59" s="66"/>
-      <c r="HE59" s="66"/>
-      <c r="HF59" s="66"/>
-      <c r="HG59" s="66" t="s">
+      <c r="GN59" s="62"/>
+      <c r="GO59" s="62"/>
+      <c r="GP59" s="62"/>
+      <c r="GQ59" s="62"/>
+      <c r="GR59" s="62"/>
+      <c r="GS59" s="62"/>
+      <c r="GT59" s="62"/>
+      <c r="GU59" s="62"/>
+      <c r="GV59" s="62"/>
+      <c r="GW59" s="62"/>
+      <c r="GX59" s="62"/>
+      <c r="GY59" s="62"/>
+      <c r="GZ59" s="62"/>
+      <c r="HA59" s="62"/>
+      <c r="HB59" s="62"/>
+      <c r="HC59" s="62"/>
+      <c r="HD59" s="62"/>
+      <c r="HE59" s="62"/>
+      <c r="HF59" s="62"/>
+      <c r="HG59" s="62" t="s">
         <v>169</v>
       </c>
-      <c r="HH59" s="66"/>
-      <c r="HI59" s="66"/>
-      <c r="HJ59" s="66"/>
-      <c r="HK59" s="66"/>
-      <c r="HL59" s="66"/>
-      <c r="HM59" s="66"/>
-      <c r="HN59" s="66"/>
-      <c r="HO59" s="66"/>
-      <c r="HP59" s="66"/>
-      <c r="HQ59" s="66"/>
-      <c r="HR59" s="66"/>
-      <c r="HS59" s="66"/>
-      <c r="HT59" s="66"/>
-      <c r="HU59" s="66"/>
-      <c r="HV59" s="66"/>
-      <c r="HW59" s="66"/>
-      <c r="HX59" s="66"/>
-      <c r="HY59" s="66"/>
-      <c r="HZ59" s="66"/>
+      <c r="HH59" s="62"/>
+      <c r="HI59" s="62"/>
+      <c r="HJ59" s="62"/>
+      <c r="HK59" s="62"/>
+      <c r="HL59" s="62"/>
+      <c r="HM59" s="62"/>
+      <c r="HN59" s="62"/>
+      <c r="HO59" s="62"/>
+      <c r="HP59" s="62"/>
+      <c r="HQ59" s="62"/>
+      <c r="HR59" s="62"/>
+      <c r="HS59" s="62"/>
+      <c r="HT59" s="62"/>
+      <c r="HU59" s="62"/>
+      <c r="HV59" s="62"/>
+      <c r="HW59" s="62"/>
+      <c r="HX59" s="62"/>
+      <c r="HY59" s="62"/>
+      <c r="HZ59" s="62"/>
       <c r="IA59" s="32"/>
       <c r="IB59" s="32"/>
       <c r="IC59" s="32"/>
-      <c r="ID59" s="66" t="s">
+      <c r="ID59" s="62" t="s">
         <v>46</v>
       </c>
-      <c r="IE59" s="66"/>
-      <c r="IF59" s="66"/>
-      <c r="IG59" s="66"/>
-      <c r="IH59" s="66"/>
-      <c r="II59" s="66"/>
-      <c r="IJ59" s="66"/>
-      <c r="IK59" s="66"/>
-      <c r="IL59" s="66"/>
-      <c r="IM59" s="66"/>
-      <c r="IN59" s="66"/>
-      <c r="IO59" s="66"/>
-      <c r="IP59" s="66"/>
-      <c r="IQ59" s="66"/>
-      <c r="IR59" s="66"/>
-      <c r="IS59" s="66"/>
-      <c r="IT59" s="66"/>
-      <c r="IU59" s="66"/>
-      <c r="IV59" s="66"/>
-      <c r="IW59" s="66"/>
-      <c r="IX59" s="66" t="s">
+      <c r="IE59" s="62"/>
+      <c r="IF59" s="62"/>
+      <c r="IG59" s="62"/>
+      <c r="IH59" s="62"/>
+      <c r="II59" s="62"/>
+      <c r="IJ59" s="62"/>
+      <c r="IK59" s="62"/>
+      <c r="IL59" s="62"/>
+      <c r="IM59" s="62"/>
+      <c r="IN59" s="62"/>
+      <c r="IO59" s="62"/>
+      <c r="IP59" s="62"/>
+      <c r="IQ59" s="62"/>
+      <c r="IR59" s="62"/>
+      <c r="IS59" s="62"/>
+      <c r="IT59" s="62"/>
+      <c r="IU59" s="62"/>
+      <c r="IV59" s="62"/>
+      <c r="IW59" s="62"/>
+      <c r="IX59" s="62" t="s">
         <v>47</v>
       </c>
-      <c r="IY59" s="66"/>
-      <c r="IZ59" s="66"/>
-      <c r="JA59" s="66"/>
-      <c r="JB59" s="66"/>
-      <c r="JC59" s="66"/>
-      <c r="JD59" s="66"/>
-      <c r="JE59" s="66"/>
-      <c r="JF59" s="66"/>
-      <c r="JG59" s="66"/>
-      <c r="JH59" s="66"/>
-      <c r="JI59" s="66"/>
-      <c r="JJ59" s="66"/>
-      <c r="JK59" s="66"/>
-      <c r="JL59" s="66"/>
-      <c r="JM59" s="66"/>
-      <c r="JN59" s="66"/>
-      <c r="JO59" s="66"/>
-      <c r="JP59" s="66"/>
-      <c r="JQ59" s="66"/>
-      <c r="JR59" s="66" t="s">
+      <c r="IY59" s="62"/>
+      <c r="IZ59" s="62"/>
+      <c r="JA59" s="62"/>
+      <c r="JB59" s="62"/>
+      <c r="JC59" s="62"/>
+      <c r="JD59" s="62"/>
+      <c r="JE59" s="62"/>
+      <c r="JF59" s="62"/>
+      <c r="JG59" s="62"/>
+      <c r="JH59" s="62"/>
+      <c r="JI59" s="62"/>
+      <c r="JJ59" s="62"/>
+      <c r="JK59" s="62"/>
+      <c r="JL59" s="62"/>
+      <c r="JM59" s="62"/>
+      <c r="JN59" s="62"/>
+      <c r="JO59" s="62"/>
+      <c r="JP59" s="62"/>
+      <c r="JQ59" s="62"/>
+      <c r="JR59" s="62" t="s">
         <v>48</v>
       </c>
-      <c r="JS59" s="66"/>
-      <c r="JT59" s="66"/>
-      <c r="JU59" s="66"/>
-      <c r="JV59" s="66"/>
-      <c r="JW59" s="66"/>
-      <c r="JX59" s="66"/>
-      <c r="JY59" s="66"/>
-      <c r="JZ59" s="66"/>
-      <c r="KA59" s="66"/>
-      <c r="KB59" s="66"/>
-      <c r="KC59" s="66"/>
-      <c r="KD59" s="66"/>
-      <c r="KE59" s="66"/>
-      <c r="KF59" s="66"/>
-      <c r="KG59" s="66"/>
-      <c r="KH59" s="66"/>
-      <c r="KI59" s="66"/>
-      <c r="KJ59" s="66"/>
-      <c r="KK59" s="66"/>
+      <c r="JS59" s="62"/>
+      <c r="JT59" s="62"/>
+      <c r="JU59" s="62"/>
+      <c r="JV59" s="62"/>
+      <c r="JW59" s="62"/>
+      <c r="JX59" s="62"/>
+      <c r="JY59" s="62"/>
+      <c r="JZ59" s="62"/>
+      <c r="KA59" s="62"/>
+      <c r="KB59" s="62"/>
+      <c r="KC59" s="62"/>
+      <c r="KD59" s="62"/>
+      <c r="KE59" s="62"/>
+      <c r="KF59" s="62"/>
+      <c r="KG59" s="62"/>
+      <c r="KH59" s="62"/>
+      <c r="KI59" s="62"/>
+      <c r="KJ59" s="62"/>
+      <c r="KK59" s="62"/>
       <c r="KL59" s="32"/>
       <c r="KM59" s="32"/>
       <c r="KN59" s="32"/>
@@ -32748,11 +32748,11 @@
   </sheetData>
   <autoFilter ref="A60:KN60"/>
   <mergeCells count="17">
-    <mergeCell ref="JR59:KK59"/>
-    <mergeCell ref="ID59:IW59"/>
-    <mergeCell ref="IX59:JQ59"/>
-    <mergeCell ref="EY59:FR59"/>
-    <mergeCell ref="HG59:HZ59"/>
+    <mergeCell ref="F59:L59"/>
+    <mergeCell ref="M59:S59"/>
+    <mergeCell ref="AS59:AV59"/>
+    <mergeCell ref="T59:Y59"/>
+    <mergeCell ref="Z59:AR59"/>
     <mergeCell ref="DK59:ED59"/>
     <mergeCell ref="EE59:EX59"/>
     <mergeCell ref="FS59:GL59"/>
@@ -32760,11 +32760,11 @@
     <mergeCell ref="BC59:BV59"/>
     <mergeCell ref="BW59:CP59"/>
     <mergeCell ref="CQ59:DJ59"/>
-    <mergeCell ref="F59:L59"/>
-    <mergeCell ref="M59:S59"/>
-    <mergeCell ref="AS59:AV59"/>
-    <mergeCell ref="T59:Y59"/>
-    <mergeCell ref="Z59:AR59"/>
+    <mergeCell ref="JR59:KK59"/>
+    <mergeCell ref="ID59:IW59"/>
+    <mergeCell ref="IX59:JQ59"/>
+    <mergeCell ref="EY59:FR59"/>
+    <mergeCell ref="HG59:HZ59"/>
   </mergeCells>
   <phoneticPr fontId="34" type="noConversion"/>
   <dataValidations count="8">
@@ -32801,8 +32801,133 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1046" r:id="rId4" name="cmdAnalyse">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+        <control shapeId="1030" r:id="rId4" name="cmdInitialise">
+          <controlPr defaultSize="0" disabled="1" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>49</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>590550</xdr:colOff>
+                <xdr:row>50</xdr:row>
+                <xdr:rowOff>142875</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1030" r:id="rId4" name="cmdInitialise"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1033" r:id="rId6" name="cmdClear">
+          <controlPr defaultSize="0" disabled="1" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>28575</xdr:colOff>
+                <xdr:row>49</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>619125</xdr:colOff>
+                <xdr:row>50</xdr:row>
+                <xdr:rowOff>142875</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1033" r:id="rId6" name="cmdClear"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1035" r:id="rId8" name="cmdBuildDatabase">
+          <controlPr defaultSize="0" disabled="1" autoLine="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>28575</xdr:colOff>
+                <xdr:row>51</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>619125</xdr:colOff>
+                <xdr:row>53</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1035" r:id="rId8" name="cmdBuildDatabase"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1036" r:id="rId10" name="cmdFreeze">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>51</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>590550</xdr:colOff>
+                <xdr:row>53</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1036" r:id="rId10" name="cmdFreeze"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1037" r:id="rId12" name="cmdCalculate">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>28575</xdr:colOff>
+                <xdr:row>53</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>619125</xdr:colOff>
+                <xdr:row>55</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1037" r:id="rId12" name="cmdCalculate"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1046" r:id="rId14" name="cmdAnalyse">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>8</xdr:col>
@@ -32821,132 +32946,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1046" r:id="rId4" name="cmdAnalyse"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1037" r:id="rId6" name="cmdCalculate">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>28575</xdr:colOff>
-                <xdr:row>53</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>619125</xdr:colOff>
-                <xdr:row>55</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1037" r:id="rId6" name="cmdCalculate"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1036" r:id="rId8" name="cmdFreeze">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>51</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>590550</xdr:colOff>
-                <xdr:row>53</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1036" r:id="rId8" name="cmdFreeze"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1035" r:id="rId10" name="cmdBuildDatabase">
-          <controlPr defaultSize="0" disabled="1" autoLine="0" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>28575</xdr:colOff>
-                <xdr:row>51</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>619125</xdr:colOff>
-                <xdr:row>53</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1035" r:id="rId10" name="cmdBuildDatabase"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1033" r:id="rId12" name="cmdClear">
-          <controlPr defaultSize="0" disabled="1" autoLine="0" r:id="rId13">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>28575</xdr:colOff>
-                <xdr:row>49</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>619125</xdr:colOff>
-                <xdr:row>50</xdr:row>
-                <xdr:rowOff>142875</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1033" r:id="rId12" name="cmdClear"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1030" r:id="rId14" name="cmdInitialise">
-          <controlPr defaultSize="0" disabled="1" autoLine="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>49</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>590550</xdr:colOff>
-                <xdr:row>50</xdr:row>
-                <xdr:rowOff>142875</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1030" r:id="rId14" name="cmdInitialise"/>
+        <control shapeId="1046" r:id="rId14" name="cmdAnalyse"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -32958,8 +32958,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:AA21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
@@ -33297,9 +33297,6 @@
       </c>
       <c r="D15" s="44" t="s">
         <v>155</v>
-      </c>
-      <c r="E15" s="44" t="s">
-        <v>150</v>
       </c>
       <c r="F15" s="44" t="s">
         <v>123</v>
@@ -33690,18 +33687,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -33819,6 +33816,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9C99F188-3948-4D4A-9404-87BD1CB685A8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{294A415B-1D59-4C21-AD03-A47B40E97E05}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
@@ -33829,14 +33834,6 @@
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9C99F188-3948-4D4A-9404-87BD1CB685A8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
